--- a/config.xlsx
+++ b/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trelehtija\Desktop\Master\Omat projektit\data_generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trelehtija\Desktop\Master\Omat projektit\generate_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F7F82B-D109-4233-81EB-7C2E6365D93D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3989857-50AD-4B17-BD48-74B4DC455662}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>tag name</t>
   </si>
@@ -114,10 +114,16 @@
     <t>d</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Hour</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>timeFormat</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +470,7 @@
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +492,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -504,13 +513,16 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -527,13 +539,13 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -550,13 +562,13 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -573,13 +585,13 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -596,13 +608,13 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -619,13 +631,13 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -642,13 +654,13 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -665,13 +677,13 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -688,13 +700,13 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -711,13 +723,13 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -734,13 +746,13 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -757,13 +769,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -780,13 +792,13 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -803,13 +815,13 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -826,10 +838,10 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,10 +861,10 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -872,10 +884,10 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trelehtija\Desktop\Master\Omat projektit\generate_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3989857-50AD-4B17-BD48-74B4DC455662}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC16D9BE-B48C-4AF0-8E8F-E1ED43D07194}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,13 +117,13 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
     <t>timeFormat</t>
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,13 +513,13 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -562,7 +562,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -608,7 +608,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -654,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
@@ -677,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -700,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -723,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -746,7 +746,7 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -769,7 +769,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
@@ -792,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -815,7 +815,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -861,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -884,7 +884,7 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trelehtija\Desktop\Master\Omat projektit\generate_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC16D9BE-B48C-4AF0-8E8F-E1ED43D07194}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE77D7A5-346B-4BB7-94D5-36FBC51AB34A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="2310" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
   <si>
     <t>tag name</t>
   </si>
@@ -54,57 +54,6 @@
     <t>period</t>
   </si>
   <si>
-    <t>AVSUHDEPANOS_U2:av</t>
-  </si>
-  <si>
-    <t>AVSUHDEVRK_U2:av</t>
-  </si>
-  <si>
-    <t>BRI_ULOS_U2:av</t>
-  </si>
-  <si>
-    <t>BRIKETIN_KORKEUS_U2:av</t>
-  </si>
-  <si>
-    <t>BRILKM_U2:av</t>
-  </si>
-  <si>
-    <t>HAIRIOAIKA_U2:av</t>
-  </si>
-  <si>
-    <t>KAYNTIASTE_U2:av</t>
-  </si>
-  <si>
-    <t>KOSTEUSMITTAUS_U2:av</t>
-  </si>
-  <si>
-    <t>LISAVESI_U2:av</t>
-  </si>
-  <si>
-    <t>MAT_KOSTEUS_U2:av</t>
-  </si>
-  <si>
-    <t>PANOSNUMERO_U2:av</t>
-  </si>
-  <si>
-    <t>PINTA1_PROS_U2:av</t>
-  </si>
-  <si>
-    <t>PINTA1_TON_U2:av</t>
-  </si>
-  <si>
-    <t>PINTA2_PROS_U2:av</t>
-  </si>
-  <si>
-    <t>PINTA2_TON_U2:av</t>
-  </si>
-  <si>
-    <t>RUMPULUJUUS_U2:av</t>
-  </si>
-  <si>
-    <t>SEMENTTIOSUUS_U2:av</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -124,6 +73,60 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>AVSUHDEPANOS_U3:av</t>
+  </si>
+  <si>
+    <t>AVSUHDEVRK_U3:av</t>
+  </si>
+  <si>
+    <t>BRI_ULOS_U3:av</t>
+  </si>
+  <si>
+    <t>BRIKETIN_KORKEUS_U3:av</t>
+  </si>
+  <si>
+    <t>BRILKM_U3:av</t>
+  </si>
+  <si>
+    <t>HAIRIOAIKA_U3:av</t>
+  </si>
+  <si>
+    <t>KAYNTIASTE_U3:av</t>
+  </si>
+  <si>
+    <t>KOSTEUSMITTAUS_U3:av</t>
+  </si>
+  <si>
+    <t>LISAVESI_U3:av</t>
+  </si>
+  <si>
+    <t>MAT_KOSTEUS_U3:av</t>
+  </si>
+  <si>
+    <t>PANOSNUMERO_U3:av</t>
+  </si>
+  <si>
+    <t>PINTA1_PROS_U3:av</t>
+  </si>
+  <si>
+    <t>PINTA1_TON_U3:av</t>
+  </si>
+  <si>
+    <t>PINTA2_PROS_U3:av</t>
+  </si>
+  <si>
+    <t>PINTA2_TON_U3:av</t>
+  </si>
+  <si>
+    <t>RUMPULUJUUS_U3:av</t>
+  </si>
+  <si>
+    <t>SEMENTTIOSUUS_U3:av</t>
+  </si>
+  <si>
+    <t>BRI_KONEELTA_U3:av</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,107 +496,107 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -602,21 +605,21 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -625,21 +628,21 @@
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -648,21 +651,21 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -671,90 +674,90 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -763,44 +766,44 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -809,44 +812,44 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -855,39 +858,62 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <v>1500</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
